--- a/biology/Botanique/Euphorbia_lacei/Euphorbia_lacei.xlsx
+++ b/biology/Botanique/Euphorbia_lacei/Euphorbia_lacei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphorbia lacei est une espèce de plantes à graines de la famille des Euphorbiaceae. Elle est endémique de Bornéo, du Laos, des Petites îles de la Sonde , de Birmanie, des Philippines et de Thaïlande.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est  un arbuste vivace avec une tige charnue.
 </t>
@@ -542,15 +556,17 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Euphorbia lacei, a été décrite par William Grant Craib et sa description publiées dans  Bulletin of Miscellaneous Information Kew 1911: 456. en 1911[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Euphorbia lacei, a été décrite par William Grant Craib et sa description publiées dans  Bulletin of Miscellaneous Information Kew 1911: 456. en 1911.
 Etymologie
-Euphorbia: Nom générique qui dérive de Euphorbus qui était le médecin du  roi grec Juba II de Mauritanie (52 à 50 av. JC. - 23 ap. JC) . En son honneur – ou en allusion à son gros ventre –  puisqu'il usait d'un médicament à base d' Euphorbia resinifera. En 1753 Carlos Linneo a assigné ce nom à tout le genre[3].
-lacei: Épithète attribué en honneur du botaniste anglais John Henry Lace (1857 - 1918), qui a travaillé dans le Service Forestier en Inde . Il a collecté des plantes en Afghanistan, en Inde et en Birmanie[4].
+Euphorbia: Nom générique qui dérive de Euphorbus qui était le médecin du  roi grec Juba II de Mauritanie (52 à 50 av. JC. - 23 ap. JC) . En son honneur – ou en allusion à son gros ventre –  puisqu'il usait d'un médicament à base d' Euphorbia resinifera. En 1753 Carlos Linneo a assigné ce nom à tout le genre.
+lacei: Épithète attribué en honneur du botaniste anglais John Henry Lace (1857 - 1918), qui a travaillé dans le Service Forestier en Inde . Il a collecté des plantes en Afghanistan, en Inde et en Birmanie.
 Synonymie
 Euphorbia barnhartii Croizat
-Euphorbia trigona Roxb[5],[6].</t>
+Euphorbia trigona Roxb,.</t>
         </is>
       </c>
     </row>
